--- a/TP2/Tableaux.xlsx
+++ b/TP2/Tableaux.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Bureau\LOG3430\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Polytechnique_Montreal\Poly_H22\LOG3430\TPS\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2388A3-43D2-4C9B-9D5D-F56B24032E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61772577-7856-4D93-90CE-E0C19AEA273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{7C0520F6-7C56-43C5-AD4C-E128D71369A3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7C0520F6-7C56-43C5-AD4C-E128D71369A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,9 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,10 +325,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE9E683-6EED-4C5C-A8A5-72348F54BB13}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -855,49 +863,49 @@
       <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1</v>
-      </c>
-      <c r="P4" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>1</v>
-      </c>
-      <c r="V4" s="20">
-        <v>0</v>
-      </c>
-      <c r="W4" s="20">
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>1</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -917,49 +925,49 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20">
-        <v>1</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>1</v>
-      </c>
-      <c r="P5" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>1</v>
-      </c>
-      <c r="V5" s="20">
-        <v>1</v>
-      </c>
-      <c r="W5" s="20">
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="19">
+        <v>1</v>
+      </c>
+      <c r="W5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -979,49 +987,49 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19">
-        <v>1</v>
-      </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
-        <v>1</v>
-      </c>
-      <c r="U6" s="19">
-        <v>0</v>
-      </c>
-      <c r="V6" s="20">
-        <v>0</v>
-      </c>
-      <c r="W6" s="20">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1041,49 +1049,49 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>1</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
-        <v>1</v>
-      </c>
-      <c r="U7" s="19">
-        <v>0</v>
-      </c>
-      <c r="V7" s="20">
-        <v>1</v>
-      </c>
-      <c r="W7" s="20">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>1</v>
+      </c>
+      <c r="W7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1103,49 +1111,49 @@
       <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19">
-        <v>1</v>
-      </c>
-      <c r="P8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
-        <v>1</v>
-      </c>
-      <c r="U8" s="19">
-        <v>1</v>
-      </c>
-      <c r="V8" s="20">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
+      <c r="U8" s="18">
+        <v>1</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1165,49 +1173,49 @@
       <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
-        <v>1</v>
-      </c>
-      <c r="P9" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0</v>
-      </c>
-      <c r="S9" s="18">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>1</v>
-      </c>
-      <c r="U9" s="19">
-        <v>1</v>
-      </c>
-      <c r="V9" s="20">
-        <v>1</v>
-      </c>
-      <c r="W9" s="20">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <v>1</v>
+      </c>
+      <c r="U9" s="18">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1227,19 +1235,19 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
         <v>0</v>
       </c>
       <c r="M10" s="14">
@@ -1257,19 +1265,19 @@
       <c r="Q10" s="16">
         <v>0</v>
       </c>
-      <c r="S10" s="18">
-        <v>1</v>
-      </c>
-      <c r="T10" s="19">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <v>0</v>
-      </c>
-      <c r="V10" s="20">
-        <v>0</v>
-      </c>
-      <c r="W10" s="20">
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1289,49 +1297,49 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>1</v>
-      </c>
-      <c r="N11" s="19">
-        <v>0</v>
-      </c>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="18">
-        <v>1</v>
-      </c>
-      <c r="T11" s="19">
-        <v>0</v>
-      </c>
-      <c r="U11" s="19">
-        <v>0</v>
-      </c>
-      <c r="V11" s="20">
-        <v>1</v>
-      </c>
-      <c r="W11" s="20">
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>1</v>
+      </c>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1</v>
+      </c>
+      <c r="W11" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1351,19 +1359,19 @@
       <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
         <v>1</v>
       </c>
       <c r="M12" s="8">
@@ -1428,19 +1436,19 @@
       <c r="K13" s="16">
         <v>0</v>
       </c>
-      <c r="M13" s="18">
-        <v>1</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
-        <v>1</v>
-      </c>
-      <c r="P13" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="20">
+      <c r="M13" s="17">
+        <v>1</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19">
         <v>0</v>
       </c>
       <c r="S13" s="14">
@@ -1475,19 +1483,19 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
         <v>0</v>
       </c>
       <c r="M14" s="14">
@@ -1505,19 +1513,19 @@
       <c r="Q14" s="16">
         <v>0</v>
       </c>
-      <c r="S14" s="18">
-        <v>1</v>
-      </c>
-      <c r="T14" s="19">
-        <v>1</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="20">
-        <v>0</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="18">
+        <v>1</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1537,19 +1545,19 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
         <v>0</v>
       </c>
       <c r="M15" s="14">
@@ -1567,19 +1575,19 @@
       <c r="Q15" s="16">
         <v>0</v>
       </c>
-      <c r="S15" s="18">
-        <v>1</v>
-      </c>
-      <c r="T15" s="19">
-        <v>1</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0</v>
-      </c>
-      <c r="V15" s="20">
-        <v>1</v>
-      </c>
-      <c r="W15" s="20">
+      <c r="S15" s="17">
+        <v>1</v>
+      </c>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
+        <v>1</v>
+      </c>
+      <c r="W15" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1599,19 +1607,19 @@
       <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="20">
-        <v>0</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
         <v>1</v>
       </c>
       <c r="M16" s="8">
@@ -1629,19 +1637,19 @@
       <c r="Q16" s="10">
         <v>1</v>
       </c>
-      <c r="S16" s="18">
-        <v>1</v>
-      </c>
-      <c r="T16" s="19">
-        <v>1</v>
-      </c>
-      <c r="U16" s="19">
-        <v>1</v>
-      </c>
-      <c r="V16" s="20">
-        <v>0</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="S16" s="17">
+        <v>1</v>
+      </c>
+      <c r="T16" s="18">
+        <v>1</v>
+      </c>
+      <c r="U16" s="18">
+        <v>1</v>
+      </c>
+      <c r="V16" s="19">
+        <v>0</v>
+      </c>
+      <c r="W16" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1691,19 +1699,19 @@
       <c r="Q17" s="13">
         <v>1</v>
       </c>
-      <c r="S17" s="21">
-        <v>1</v>
-      </c>
-      <c r="T17" s="22">
-        <v>1</v>
-      </c>
-      <c r="U17" s="22">
-        <v>1</v>
-      </c>
-      <c r="V17" s="23">
-        <v>1</v>
-      </c>
-      <c r="W17" s="23">
+      <c r="S17" s="20">
+        <v>1</v>
+      </c>
+      <c r="T17" s="21">
+        <v>1</v>
+      </c>
+      <c r="U17" s="21">
+        <v>1</v>
+      </c>
+      <c r="V17" s="22">
+        <v>1</v>
+      </c>
+      <c r="W17" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1722,11 +1730,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="G20" t="s">
         <v>7</v>
       </c>
@@ -1738,16 +1746,16 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="26">
         <v>4.12</v>
       </c>
       <c r="B21">
         <v>4.16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="27">
         <v>4.17</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="26" t="s">
         <v>8</v>
       </c>
       <c r="M21" t="s">
@@ -1756,10 +1764,10 @@
       <c r="N21" t="s">
         <v>25</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1854,7 +1862,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2060,49 +2068,49 @@
       <c r="E43" s="16">
         <v>0</v>
       </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="19">
-        <v>1</v>
-      </c>
-      <c r="J43" s="20">
-        <v>0</v>
-      </c>
-      <c r="K43" s="20">
-        <v>0</v>
-      </c>
-      <c r="M43" s="18">
-        <v>0</v>
-      </c>
-      <c r="N43" s="19">
-        <v>0</v>
-      </c>
-      <c r="O43" s="19">
-        <v>1</v>
-      </c>
-      <c r="P43" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="20">
-        <v>0</v>
-      </c>
-      <c r="S43" s="18">
-        <v>0</v>
-      </c>
-      <c r="T43" s="19">
-        <v>0</v>
-      </c>
-      <c r="U43" s="19">
-        <v>1</v>
-      </c>
-      <c r="V43" s="20">
-        <v>0</v>
-      </c>
-      <c r="W43" s="20">
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+      <c r="N43" s="18">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18">
+        <v>1</v>
+      </c>
+      <c r="P43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <v>0</v>
+      </c>
+      <c r="T43" s="18">
+        <v>0</v>
+      </c>
+      <c r="U43" s="18">
+        <v>1</v>
+      </c>
+      <c r="V43" s="19">
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2122,49 +2130,49 @@
       <c r="E44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="19">
-        <v>1</v>
-      </c>
-      <c r="J44" s="20">
-        <v>1</v>
-      </c>
-      <c r="K44" s="20">
-        <v>0</v>
-      </c>
-      <c r="M44" s="18">
-        <v>0</v>
-      </c>
-      <c r="N44" s="19">
-        <v>0</v>
-      </c>
-      <c r="O44" s="19">
-        <v>1</v>
-      </c>
-      <c r="P44" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="20">
-        <v>0</v>
-      </c>
-      <c r="S44" s="18">
-        <v>0</v>
-      </c>
-      <c r="T44" s="19">
-        <v>0</v>
-      </c>
-      <c r="U44" s="19">
-        <v>1</v>
-      </c>
-      <c r="V44" s="20">
-        <v>1</v>
-      </c>
-      <c r="W44" s="20">
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
+      <c r="J44" s="19">
+        <v>1</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+      <c r="M44" s="17">
+        <v>0</v>
+      </c>
+      <c r="N44" s="18">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18">
+        <v>1</v>
+      </c>
+      <c r="P44" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17">
+        <v>0</v>
+      </c>
+      <c r="T44" s="18">
+        <v>0</v>
+      </c>
+      <c r="U44" s="18">
+        <v>1</v>
+      </c>
+      <c r="V44" s="19">
+        <v>1</v>
+      </c>
+      <c r="W44" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2184,49 +2192,49 @@
       <c r="E45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
-      <c r="H45" s="19">
-        <v>1</v>
-      </c>
-      <c r="I45" s="19">
-        <v>0</v>
-      </c>
-      <c r="J45" s="20">
-        <v>0</v>
-      </c>
-      <c r="K45" s="20">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18">
-        <v>0</v>
-      </c>
-      <c r="N45" s="19">
-        <v>1</v>
-      </c>
-      <c r="O45" s="19">
-        <v>0</v>
-      </c>
-      <c r="P45" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="20">
-        <v>0</v>
-      </c>
-      <c r="S45" s="18">
-        <v>0</v>
-      </c>
-      <c r="T45" s="19">
-        <v>1</v>
-      </c>
-      <c r="U45" s="19">
-        <v>0</v>
-      </c>
-      <c r="V45" s="20">
-        <v>0</v>
-      </c>
-      <c r="W45" s="20">
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
+        <v>0</v>
+      </c>
+      <c r="N45" s="18">
+        <v>1</v>
+      </c>
+      <c r="O45" s="18">
+        <v>0</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17">
+        <v>0</v>
+      </c>
+      <c r="T45" s="18">
+        <v>1</v>
+      </c>
+      <c r="U45" s="18">
+        <v>0</v>
+      </c>
+      <c r="V45" s="19">
+        <v>0</v>
+      </c>
+      <c r="W45" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2246,49 +2254,49 @@
       <c r="E46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="18">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
-        <v>1</v>
-      </c>
-      <c r="I46" s="19">
-        <v>0</v>
-      </c>
-      <c r="J46" s="20">
-        <v>1</v>
-      </c>
-      <c r="K46" s="20">
-        <v>0</v>
-      </c>
-      <c r="M46" s="18">
-        <v>0</v>
-      </c>
-      <c r="N46" s="19">
-        <v>1</v>
-      </c>
-      <c r="O46" s="19">
-        <v>0</v>
-      </c>
-      <c r="P46" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="20">
-        <v>0</v>
-      </c>
-      <c r="S46" s="18">
-        <v>0</v>
-      </c>
-      <c r="T46" s="19">
-        <v>1</v>
-      </c>
-      <c r="U46" s="19">
-        <v>0</v>
-      </c>
-      <c r="V46" s="20">
-        <v>1</v>
-      </c>
-      <c r="W46" s="20">
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19">
+        <v>1</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+      <c r="M46" s="17">
+        <v>0</v>
+      </c>
+      <c r="N46" s="18">
+        <v>1</v>
+      </c>
+      <c r="O46" s="18">
+        <v>0</v>
+      </c>
+      <c r="P46" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>0</v>
+      </c>
+      <c r="S46" s="17">
+        <v>0</v>
+      </c>
+      <c r="T46" s="18">
+        <v>1</v>
+      </c>
+      <c r="U46" s="18">
+        <v>0</v>
+      </c>
+      <c r="V46" s="19">
+        <v>1</v>
+      </c>
+      <c r="W46" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2308,49 +2316,49 @@
       <c r="E47" s="16">
         <v>0</v>
       </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="19">
-        <v>1</v>
-      </c>
-      <c r="J47" s="20">
-        <v>0</v>
-      </c>
-      <c r="K47" s="20">
-        <v>0</v>
-      </c>
-      <c r="M47" s="18">
-        <v>0</v>
-      </c>
-      <c r="N47" s="19">
-        <v>1</v>
-      </c>
-      <c r="O47" s="19">
-        <v>1</v>
-      </c>
-      <c r="P47" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="20">
-        <v>0</v>
-      </c>
-      <c r="S47" s="18">
-        <v>0</v>
-      </c>
-      <c r="T47" s="19">
-        <v>1</v>
-      </c>
-      <c r="U47" s="19">
-        <v>1</v>
-      </c>
-      <c r="V47" s="20">
-        <v>0</v>
-      </c>
-      <c r="W47" s="20">
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
+        <v>1</v>
+      </c>
+      <c r="O47" s="18">
+        <v>1</v>
+      </c>
+      <c r="P47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17">
+        <v>0</v>
+      </c>
+      <c r="T47" s="18">
+        <v>1</v>
+      </c>
+      <c r="U47" s="18">
+        <v>1</v>
+      </c>
+      <c r="V47" s="19">
+        <v>0</v>
+      </c>
+      <c r="W47" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2370,49 +2378,49 @@
       <c r="E48" s="16">
         <v>0</v>
       </c>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
-        <v>1</v>
-      </c>
-      <c r="I48" s="19">
-        <v>1</v>
-      </c>
-      <c r="J48" s="20">
-        <v>1</v>
-      </c>
-      <c r="K48" s="20">
-        <v>0</v>
-      </c>
-      <c r="M48" s="18">
-        <v>0</v>
-      </c>
-      <c r="N48" s="19">
-        <v>1</v>
-      </c>
-      <c r="O48" s="19">
-        <v>1</v>
-      </c>
-      <c r="P48" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="20">
-        <v>0</v>
-      </c>
-      <c r="S48" s="18">
-        <v>0</v>
-      </c>
-      <c r="T48" s="19">
-        <v>1</v>
-      </c>
-      <c r="U48" s="19">
-        <v>1</v>
-      </c>
-      <c r="V48" s="20">
-        <v>1</v>
-      </c>
-      <c r="W48" s="20">
+      <c r="G48" s="17">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
+      <c r="J48" s="19">
+        <v>1</v>
+      </c>
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="M48" s="17">
+        <v>0</v>
+      </c>
+      <c r="N48" s="18">
+        <v>1</v>
+      </c>
+      <c r="O48" s="18">
+        <v>1</v>
+      </c>
+      <c r="P48" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>0</v>
+      </c>
+      <c r="S48" s="17">
+        <v>0</v>
+      </c>
+      <c r="T48" s="18">
+        <v>1</v>
+      </c>
+      <c r="U48" s="18">
+        <v>1</v>
+      </c>
+      <c r="V48" s="19">
+        <v>1</v>
+      </c>
+      <c r="W48" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2432,19 +2440,19 @@
       <c r="E49" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="18">
-        <v>1</v>
-      </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="19">
-        <v>0</v>
-      </c>
-      <c r="J49" s="20">
-        <v>0</v>
-      </c>
-      <c r="K49" s="20">
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19">
+        <v>0</v>
+      </c>
+      <c r="K49" s="19">
         <v>0</v>
       </c>
       <c r="M49" s="14">
@@ -2462,19 +2470,19 @@
       <c r="Q49" s="16">
         <v>0</v>
       </c>
-      <c r="S49" s="18">
-        <v>1</v>
-      </c>
-      <c r="T49" s="19">
-        <v>0</v>
-      </c>
-      <c r="U49" s="19">
-        <v>0</v>
-      </c>
-      <c r="V49" s="20">
-        <v>0</v>
-      </c>
-      <c r="W49" s="20">
+      <c r="S49" s="17">
+        <v>1</v>
+      </c>
+      <c r="T49" s="18">
+        <v>0</v>
+      </c>
+      <c r="U49" s="18">
+        <v>0</v>
+      </c>
+      <c r="V49" s="19">
+        <v>0</v>
+      </c>
+      <c r="W49" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2494,49 +2502,49 @@
       <c r="E50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="18">
-        <v>1</v>
-      </c>
-      <c r="H50" s="19">
-        <v>0</v>
-      </c>
-      <c r="I50" s="19">
-        <v>0</v>
-      </c>
-      <c r="J50" s="20">
-        <v>1</v>
-      </c>
-      <c r="K50" s="20">
-        <v>0</v>
-      </c>
-      <c r="M50" s="18">
-        <v>1</v>
-      </c>
-      <c r="N50" s="19">
-        <v>0</v>
-      </c>
-      <c r="O50" s="19">
-        <v>0</v>
-      </c>
-      <c r="P50" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="20">
-        <v>0</v>
-      </c>
-      <c r="S50" s="18">
-        <v>1</v>
-      </c>
-      <c r="T50" s="19">
-        <v>0</v>
-      </c>
-      <c r="U50" s="19">
-        <v>0</v>
-      </c>
-      <c r="V50" s="20">
-        <v>1</v>
-      </c>
-      <c r="W50" s="20">
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0</v>
+      </c>
+      <c r="J50" s="19">
+        <v>1</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0</v>
+      </c>
+      <c r="M50" s="17">
+        <v>1</v>
+      </c>
+      <c r="N50" s="18">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+      <c r="P50" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>0</v>
+      </c>
+      <c r="S50" s="17">
+        <v>1</v>
+      </c>
+      <c r="T50" s="18">
+        <v>0</v>
+      </c>
+      <c r="U50" s="18">
+        <v>0</v>
+      </c>
+      <c r="V50" s="19">
+        <v>1</v>
+      </c>
+      <c r="W50" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2556,19 +2564,19 @@
       <c r="E51" s="10">
         <v>1</v>
       </c>
-      <c r="G51" s="18">
-        <v>1</v>
-      </c>
-      <c r="H51" s="19">
-        <v>0</v>
-      </c>
-      <c r="I51" s="19">
-        <v>1</v>
-      </c>
-      <c r="J51" s="20">
-        <v>0</v>
-      </c>
-      <c r="K51" s="20">
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
+        <v>1</v>
+      </c>
+      <c r="J51" s="19">
+        <v>0</v>
+      </c>
+      <c r="K51" s="19">
         <v>1</v>
       </c>
       <c r="M51" s="8">
@@ -2633,19 +2641,19 @@
       <c r="K52" s="16">
         <v>0</v>
       </c>
-      <c r="M52" s="18">
-        <v>1</v>
-      </c>
-      <c r="N52" s="19">
-        <v>0</v>
-      </c>
-      <c r="O52" s="19">
-        <v>1</v>
-      </c>
-      <c r="P52" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="20">
+      <c r="M52" s="17">
+        <v>1</v>
+      </c>
+      <c r="N52" s="18">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
+        <v>1</v>
+      </c>
+      <c r="P52" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="19">
         <v>0</v>
       </c>
       <c r="S52" s="14">
@@ -2680,19 +2688,19 @@
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="18">
-        <v>1</v>
-      </c>
-      <c r="H53" s="19">
-        <v>1</v>
-      </c>
-      <c r="I53" s="19">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20">
-        <v>0</v>
-      </c>
-      <c r="K53" s="20">
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="18">
+        <v>1</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0</v>
+      </c>
+      <c r="J53" s="19">
+        <v>0</v>
+      </c>
+      <c r="K53" s="19">
         <v>0</v>
       </c>
       <c r="M53" s="14">
@@ -2710,19 +2718,19 @@
       <c r="Q53" s="16">
         <v>0</v>
       </c>
-      <c r="S53" s="18">
-        <v>1</v>
-      </c>
-      <c r="T53" s="19">
-        <v>1</v>
-      </c>
-      <c r="U53" s="19">
-        <v>0</v>
-      </c>
-      <c r="V53" s="20">
-        <v>0</v>
-      </c>
-      <c r="W53" s="20">
+      <c r="S53" s="17">
+        <v>1</v>
+      </c>
+      <c r="T53" s="18">
+        <v>1</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0</v>
+      </c>
+      <c r="V53" s="19">
+        <v>0</v>
+      </c>
+      <c r="W53" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2742,19 +2750,19 @@
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="18">
-        <v>1</v>
-      </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="19">
-        <v>0</v>
-      </c>
-      <c r="J54" s="20">
-        <v>1</v>
-      </c>
-      <c r="K54" s="20">
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19">
+        <v>1</v>
+      </c>
+      <c r="K54" s="19">
         <v>0</v>
       </c>
       <c r="M54" s="14">
@@ -2772,19 +2780,19 @@
       <c r="Q54" s="16">
         <v>0</v>
       </c>
-      <c r="S54" s="18">
-        <v>1</v>
-      </c>
-      <c r="T54" s="19">
-        <v>1</v>
-      </c>
-      <c r="U54" s="19">
-        <v>0</v>
-      </c>
-      <c r="V54" s="20">
-        <v>1</v>
-      </c>
-      <c r="W54" s="20">
+      <c r="S54" s="17">
+        <v>1</v>
+      </c>
+      <c r="T54" s="18">
+        <v>1</v>
+      </c>
+      <c r="U54" s="18">
+        <v>0</v>
+      </c>
+      <c r="V54" s="19">
+        <v>1</v>
+      </c>
+      <c r="W54" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2804,19 +2812,19 @@
       <c r="E55" s="10">
         <v>1</v>
       </c>
-      <c r="G55" s="18">
-        <v>1</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="19">
-        <v>1</v>
-      </c>
-      <c r="J55" s="20">
-        <v>0</v>
-      </c>
-      <c r="K55" s="20">
+      <c r="G55" s="17">
+        <v>1</v>
+      </c>
+      <c r="H55" s="18">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18">
+        <v>1</v>
+      </c>
+      <c r="J55" s="19">
+        <v>0</v>
+      </c>
+      <c r="K55" s="19">
         <v>1</v>
       </c>
       <c r="M55" s="8">
@@ -2834,19 +2842,19 @@
       <c r="Q55" s="10">
         <v>1</v>
       </c>
-      <c r="S55" s="18">
-        <v>1</v>
-      </c>
-      <c r="T55" s="19">
-        <v>1</v>
-      </c>
-      <c r="U55" s="19">
-        <v>1</v>
-      </c>
-      <c r="V55" s="20">
-        <v>0</v>
-      </c>
-      <c r="W55" s="20">
+      <c r="S55" s="17">
+        <v>1</v>
+      </c>
+      <c r="T55" s="18">
+        <v>1</v>
+      </c>
+      <c r="U55" s="18">
+        <v>1</v>
+      </c>
+      <c r="V55" s="19">
+        <v>0</v>
+      </c>
+      <c r="W55" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2896,19 +2904,19 @@
       <c r="Q56" s="13">
         <v>1</v>
       </c>
-      <c r="S56" s="21">
-        <v>1</v>
-      </c>
-      <c r="T56" s="22">
-        <v>1</v>
-      </c>
-      <c r="U56" s="22">
-        <v>1</v>
-      </c>
-      <c r="V56" s="23">
-        <v>1</v>
-      </c>
-      <c r="W56" s="23">
+      <c r="S56" s="20">
+        <v>1</v>
+      </c>
+      <c r="T56" s="21">
+        <v>1</v>
+      </c>
+      <c r="U56" s="21">
+        <v>1</v>
+      </c>
+      <c r="V56" s="22">
+        <v>1</v>
+      </c>
+      <c r="W56" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2978,17 +2986,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TP2/Tableaux.xlsx
+++ b/TP2/Tableaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Polytechnique_Montreal\Poly_H22\LOG3430\TPS\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61772577-7856-4D93-90CE-E0C19AEA273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EE6D1-EC55-49F4-8622-974314C25483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7C0520F6-7C56-43C5-AD4C-E128D71369A3}"/>
+    <workbookView xWindow="8325" yWindow="4545" windowWidth="21600" windowHeight="11385" xr2:uid="{7C0520F6-7C56-43C5-AD4C-E128D71369A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -326,14 +326,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,11 +1730,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="G20" t="s">
         <v>7</v>
       </c>
@@ -1746,16 +1746,16 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="24">
         <v>4.12</v>
       </c>
       <c r="B21">
         <v>4.16</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="25">
         <v>4.17</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="24" t="s">
         <v>8</v>
       </c>
       <c r="M21" t="s">
@@ -1764,10 +1764,10 @@
       <c r="N21" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="S21" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1812,46 +1812,46 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="26"/>
       <c r="C27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="26"/>
       <c r="C28">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="26"/>
       <c r="C29">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="26"/>
       <c r="C30">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="26"/>
       <c r="C31">
         <v>17</v>
       </c>
@@ -2935,46 +2935,46 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="26"/>
       <c r="C62">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="26"/>
       <c r="C63">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="26"/>
       <c r="C64">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="26"/>
       <c r="C65">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="26"/>
       <c r="C66">
         <v>17</v>
       </c>
@@ -2986,17 +2986,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
